--- a/DataSource/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/DataSource/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7635BBBB-9A96-4402-9156-4A651AD97491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E0D0AE-7D7A-492E-9505-BC357B496AFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Anio</t>
   </si>
@@ -134,26 +134,48 @@
             <v>i-preproducciongestion.segurossura.com.ar</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="R4" t="str">
-            <v>AON003</v>
-          </cell>
-          <cell r="S4" t="str">
-            <v>ABC12AON003</v>
-          </cell>
-          <cell r="T4" t="str">
-            <v>ZAZ12AON003</v>
+        <row r="25">
+          <cell r="R25" t="str">
+            <v>SET168</v>
+          </cell>
+          <cell r="S25" t="str">
+            <v>ABC12SET168</v>
+          </cell>
+          <cell r="T25" t="str">
+            <v>ZAZ123SET168</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="R5" t="str">
-            <v>AON004</v>
-          </cell>
-          <cell r="S5" t="str">
-            <v>ABC12AON004</v>
-          </cell>
-          <cell r="T5" t="str">
-            <v>ZAZ12AON004</v>
+        <row r="26">
+          <cell r="R26" t="str">
+            <v>SET169</v>
+          </cell>
+          <cell r="S26" t="str">
+            <v>ABC12SET169</v>
+          </cell>
+          <cell r="T26" t="str">
+            <v>ZAZ123SET169</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="R27" t="str">
+            <v>SET170</v>
+          </cell>
+          <cell r="S27" t="str">
+            <v>ABC12SET170</v>
+          </cell>
+          <cell r="T27" t="str">
+            <v>ZAZ123SET170</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="R28" t="str">
+            <v>SET171</v>
+          </cell>
+          <cell r="S28" t="str">
+            <v>ABC12SET171</v>
+          </cell>
+          <cell r="T28" t="str">
+            <v>ZAZ123SET171</v>
           </cell>
         </row>
       </sheetData>
@@ -462,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3219A7E-753F-4FEB-993B-C5A835647261}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,16 +538,16 @@
         <v>10</v>
       </c>
       <c r="F2" t="str">
-        <f>[1]Emisión_Motor!$R4</f>
-        <v>AON003</v>
+        <f>[1]Emisión_Motor!$R25</f>
+        <v>SET168</v>
       </c>
       <c r="G2" t="str">
-        <f>[1]Emisión_Motor!$S4</f>
-        <v>ABC12AON003</v>
+        <f>[1]Emisión_Motor!$S25</f>
+        <v>ABC12SET168</v>
       </c>
       <c r="H2" t="str">
-        <f>[1]Emisión_Motor!$T4</f>
-        <v>ZAZ12AON003</v>
+        <f>[1]Emisión_Motor!$T25</f>
+        <v>ZAZ123SET168</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -548,18 +570,82 @@
         <v>10</v>
       </c>
       <c r="F3" t="str">
-        <f>[1]Emisión_Motor!$R5</f>
-        <v>AON004</v>
+        <f>[1]Emisión_Motor!$R26</f>
+        <v>SET169</v>
       </c>
       <c r="G3" t="str">
-        <f>[1]Emisión_Motor!$S5</f>
-        <v>ABC12AON004</v>
+        <f>[1]Emisión_Motor!$S26</f>
+        <v>ABC12SET169</v>
       </c>
       <c r="H3" t="str">
-        <f>[1]Emisión_Motor!$T5</f>
-        <v>ZAZ12AON004</v>
+        <f>[1]Emisión_Motor!$T26</f>
+        <v>ZAZ123SET169</v>
       </c>
       <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>900000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="str">
+        <f>[1]Emisión_Motor!$R27</f>
+        <v>SET170</v>
+      </c>
+      <c r="G4" t="str">
+        <f>[1]Emisión_Motor!$S27</f>
+        <v>ABC12SET170</v>
+      </c>
+      <c r="H4" t="str">
+        <f>[1]Emisión_Motor!$T27</f>
+        <v>ZAZ123SET170</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>147</v>
+      </c>
+      <c r="D5">
+        <v>900000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="str">
+        <f>[1]Emisión_Motor!$R28</f>
+        <v>SET171</v>
+      </c>
+      <c r="G5" t="str">
+        <f>[1]Emisión_Motor!$S28</f>
+        <v>ABC12SET171</v>
+      </c>
+      <c r="H5" t="str">
+        <f>[1]Emisión_Motor!$T28</f>
+        <v>ZAZ123SET171</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
     </row>
